--- a/Excel arica.xlsx
+++ b/Excel arica.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lab-B303\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lab-B303\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7FF1872E-BCA3-43D6-9506-D70B980C4BAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E013136-60C5-4F81-8A6A-6A3CCF1013D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{C5CBE1D3-78E9-4FDB-A6C4-C5BAD306ED00}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="31">
   <si>
     <t>Columna1</t>
   </si>
@@ -115,14 +115,26 @@
     <t>Waldo Sankán Martínez</t>
   </si>
   <si>
-    <t>df</t>
+    <t>PPD</t>
+  </si>
+  <si>
+    <t>Gerardo Espíndola</t>
+  </si>
+  <si>
+    <t>PL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Salvador Urrutia </t>
+  </si>
+  <si>
+    <t>PRO</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -151,6 +163,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF202122"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -173,13 +191,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -562,12 +582,13 @@
   <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="5" max="5" width="21.28515625" customWidth="1"/>
+    <col min="8" max="8" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="22" customWidth="1"/>
     <col min="11" max="11" width="19.7109375" customWidth="1"/>
   </cols>
@@ -665,7 +686,7 @@
         <v>31783</v>
       </c>
       <c r="H3" s="2">
-        <v>43.94</v>
+        <v>439.4</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -706,7 +727,7 @@
         <v>1</v>
       </c>
       <c r="J4">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="K4">
         <v>40.97</v>
@@ -719,8 +740,11 @@
       <c r="B5" t="s">
         <v>18</v>
       </c>
+      <c r="C5">
+        <v>7</v>
+      </c>
       <c r="D5">
-        <v>29344</v>
+        <v>61993</v>
       </c>
       <c r="E5" t="s">
         <v>23</v>
@@ -736,6 +760,12 @@
       </c>
       <c r="I5">
         <v>0</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="K5">
+        <v>62.83</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -745,8 +775,32 @@
       <c r="B6" t="s">
         <v>18</v>
       </c>
+      <c r="C6">
+        <v>8</v>
+      </c>
+      <c r="D6" s="4">
+        <v>61233</v>
+      </c>
       <c r="E6" s="3" t="s">
         <v>25</v>
+      </c>
+      <c r="F6" t="s">
+        <v>26</v>
+      </c>
+      <c r="G6" s="5">
+        <v>28727</v>
+      </c>
+      <c r="H6">
+        <v>44.55</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>8</v>
+      </c>
+      <c r="K6">
+        <v>65.349999999999994</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -756,8 +810,32 @@
       <c r="B7" t="s">
         <v>18</v>
       </c>
+      <c r="C7">
+        <v>10</v>
+      </c>
+      <c r="D7" s="4">
+        <v>47539</v>
+      </c>
       <c r="E7" t="s">
-        <v>26</v>
+        <v>29</v>
+      </c>
+      <c r="F7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G7" s="4">
+        <v>16807</v>
+      </c>
+      <c r="H7">
+        <v>35.6</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>1</v>
+      </c>
+      <c r="K7">
+        <v>43.81</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -767,6 +845,33 @@
       <c r="B8" t="s">
         <v>18</v>
       </c>
+      <c r="C8">
+        <v>9</v>
+      </c>
+      <c r="D8" s="4">
+        <v>47137</v>
+      </c>
+      <c r="E8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F8" t="s">
+        <v>28</v>
+      </c>
+      <c r="G8" s="4">
+        <v>11558</v>
+      </c>
+      <c r="H8">
+        <v>24.52</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>24.52</v>
+      </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9">
@@ -775,6 +880,33 @@
       <c r="B9" t="s">
         <v>18</v>
       </c>
+      <c r="C9">
+        <v>10</v>
+      </c>
+      <c r="D9" s="4">
+        <v>36.79</v>
+      </c>
+      <c r="E9" t="s">
+        <v>27</v>
+      </c>
+      <c r="F9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G9" s="4">
+        <v>20992</v>
+      </c>
+      <c r="H9">
+        <v>32.94</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
+      <c r="J9">
+        <v>1</v>
+      </c>
+      <c r="K9">
+        <v>36.03</v>
+      </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10">
@@ -783,8 +915,18 @@
       <c r="B10" t="s">
         <v>18</v>
       </c>
+      <c r="E10" t="s">
+        <v>27</v>
+      </c>
+      <c r="F10" t="s">
+        <v>28</v>
+      </c>
+      <c r="I10">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>